--- a/code/results/entropy_C_sampen_4_1_0.8_inicialfinal_stats.xlsx
+++ b/code/results/entropy_C_sampen_4_1_0.8_inicialfinal_stats.xlsx
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.586954457787531e-12</v>
+        <v>3.586954457787532e-12</v>
       </c>
       <c r="F13" t="n">
         <v>-18.49813206087408</v>
@@ -907,9 +907,15 @@
           <t>alpha</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.7450723481033423</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4333408326701519</v>
+      </c>
+      <c r="G16" t="n">
+        <v>79.97604888891956</v>
+      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
@@ -931,11 +937,17 @@
           <t>beta</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0.000643871801222988</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-5.642684565960459</v>
+      </c>
+      <c r="G17" t="n">
+        <v>51.22433748035346</v>
+      </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -955,11 +967,17 @@
           <t>gamma</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.02241830351434788</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3.942617668930942</v>
+      </c>
+      <c r="G18" t="n">
+        <v>39.29620486710468</v>
+      </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -979,11 +997,17 @@
           <t>all bands</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>1.586969268842816e-15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-37.62292601181118</v>
+      </c>
+      <c r="G19" t="n">
+        <v>106.3364803441259</v>
+      </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1063,11 +1087,17 @@
           <t>alpha</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>6.461284622464442e-05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-4.531944186563699</v>
+      </c>
+      <c r="G22" t="n">
+        <v>57.32272466310992</v>
+      </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1088,7 +1118,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.005181580316172343</v>
+        <v>0.005181580316172342</v>
       </c>
       <c r="F23" t="n">
         <v>-3.121230207493572</v>
@@ -1118,7 +1148,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2446778414505823</v>
+        <v>0.2446778414505822</v>
       </c>
       <c r="F24" t="n">
         <v>1.627726803933347</v>
@@ -1268,7 +1298,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.65817168242021e-13</v>
+        <v>2.658171682420209e-13</v>
       </c>
       <c r="F29" t="n">
         <v>-12.44628942753697</v>
@@ -1421,7 +1451,7 @@
         <v>5.137050715212016e-11</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.029493151688465</v>
+        <v>-6.029493151688476</v>
       </c>
       <c r="G34" t="n">
         <v>53.98702866241886</v>
@@ -1448,7 +1478,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.242078962700627e-49</v>
+        <v>7.242078962700626e-49</v>
       </c>
       <c r="F35" t="n">
         <v>-25.72849248500388</v>
